--- a/src/test/resources/test_data/ReviewPageTest/PreAppliedCouponsTest.xlsx
+++ b/src/test/resources/test_data/ReviewPageTest/PreAppliedCouponsTest.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>MobileNumber</t>
   </si>
@@ -44,13 +43,19 @@
     <t>2</t>
   </si>
   <si>
-    <t>15-12-2018</t>
-  </si>
-  <si>
     <t>8447245678</t>
   </si>
   <si>
     <t>FabHotel Modesty</t>
+  </si>
+  <si>
+    <t>checkInMonth</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -431,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +447,13 @@
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,18 +464,21 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -479,13 +487,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
